--- a/aplicaciones/www/estaticos/datos/descarga/ya9-2-detencion-no-privativa.xlsx
+++ b/aplicaciones/www/estaticos/datos/descarga/ya9-2-detencion-no-privativa.xlsx
@@ -1,39 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_60C6943C5D4F252541229FB1E68D7E0932B39695" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C82032D-682B-4F01-937A-2172746EAFFB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">coddepto</t>
+    <t>coddepto</t>
   </si>
   <si>
-    <t xml:space="preserve">anno</t>
+    <t>anno</t>
   </si>
   <si>
-    <t xml:space="preserve">ingresos_totales</t>
+    <t>ingresos_totales</t>
   </si>
   <si>
-    <t xml:space="preserve">SRPA_2</t>
+    <t>SRPA_2</t>
   </si>
   <si>
-    <t xml:space="preserve">tasa</t>
+    <t>tasa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -70,6 +88,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,14 +378,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E298"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,4813 +405,4691 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2015</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1624</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>329</v>
       </c>
-      <c r="E2" t="n">
-        <v>20.2586206896552</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="E2">
+        <v>20.258620689655199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2016</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2565</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>308</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>12.0077972709552</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2017</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2779</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>350</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>12.5944584382872</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2018</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2061</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>706</v>
       </c>
-      <c r="E5" t="n">
-        <v>34.2552159146046</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="E5">
+        <v>34.255215914604598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2019</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1901</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>504</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>26.5123619147817</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2020</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2984</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>495</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>16.588471849866</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2021</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4073</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>454</v>
       </c>
-      <c r="E8" t="n">
-        <v>11.146575006138</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="E8">
+        <v>11.146575006138001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2022</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>3630</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>410</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>11.2947658402204</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2023</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>3442</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1231</v>
       </c>
-      <c r="E10" t="n">
-        <v>35.7640906449738</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="E10">
+        <v>35.764090644973798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2015</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1656</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>97</v>
       </c>
-      <c r="E11" t="n">
-        <v>5.85748792270531</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="E11">
+        <v>5.8574879227053103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2016</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1892</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>63</v>
       </c>
-      <c r="E12" t="n">
-        <v>3.32980972515856</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="E12">
+        <v>3.3298097251585599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2017</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2074</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>74</v>
       </c>
-      <c r="E13" t="n">
-        <v>3.56798457087753</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="E13">
+        <v>3.5679845708775302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2018</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1832</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>116</v>
       </c>
-      <c r="E14" t="n">
-        <v>6.33187772925764</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="E14">
+        <v>6.3318777292576396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2019</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1985</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>85</v>
       </c>
-      <c r="E15" t="n">
-        <v>4.28211586901763</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="E15">
+        <v>4.2821158690176304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2020</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1929</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>103</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>5.33955417314671</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2021</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2410</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>91</v>
       </c>
-      <c r="E17" t="n">
-        <v>3.77593360995851</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="E17">
+        <v>3.7759336099585101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2022</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2642</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>97</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>3.67146101438304</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:5">
+      <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2023</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2413</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>288</v>
       </c>
-      <c r="E19" t="n">
-        <v>11.9353501864898</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="E19">
+        <v>11.935350186489799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
         <v>11</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2015</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>6960</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1641</v>
       </c>
-      <c r="E20" t="n">
-        <v>23.5775862068966</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="E20">
+        <v>23.577586206896601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
         <v>11</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2016</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>9086</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>753</v>
       </c>
-      <c r="E21" t="n">
-        <v>8.28747523662778</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="E21">
+        <v>8.2874752366277793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2017</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>8594</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>1050</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>12.217826390505</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2018</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>10355</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>821</v>
       </c>
-      <c r="E23" t="n">
-        <v>7.92853693867697</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="E23">
+        <v>7.9285369386769702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2019</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>9718</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>618</v>
       </c>
-      <c r="E24" t="n">
-        <v>6.35933319613089</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="E24">
+        <v>6.3593331961308897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
         <v>11</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2020</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>8063</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>486</v>
       </c>
-      <c r="E25" t="n">
-        <v>6.02753317623713</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="E25">
+        <v>6.0275331762371298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
         <v>11</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2021</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>11874</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>367</v>
       </c>
-      <c r="E26" t="n">
-        <v>3.09078659255516</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="E26">
+        <v>3.0907865925551601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2022</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>14029</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>358</v>
       </c>
-      <c r="E27" t="n">
-        <v>2.55185686791646</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="E27">
+        <v>2.5518568679164599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
         <v>11</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>2023</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>12475</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>1249</v>
       </c>
-      <c r="E28" t="n">
-        <v>10.0120240480962</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="E28">
+        <v>10.012024048096199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2015</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>938</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>251</v>
       </c>
-      <c r="E29" t="n">
-        <v>26.7590618336887</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="E29">
+        <v>26.759061833688701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
         <v>13</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2016</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1622</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>171</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>10.5425400739827</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:5">
+      <c r="A31">
         <v>13</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2017</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1340</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>216</v>
       </c>
-      <c r="E31" t="n">
-        <v>16.1194029850746</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="E31">
+        <v>16.119402985074601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
         <v>13</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>2018</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1618</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>225</v>
       </c>
-      <c r="E32" t="n">
-        <v>13.9060568603214</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="E32">
+        <v>13.906056860321399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
         <v>13</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>2019</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1168</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>191</v>
       </c>
-      <c r="E33" t="n">
-        <v>16.3527397260274</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="E33">
+        <v>16.352739726027401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
         <v>13</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2020</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1384</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>226</v>
       </c>
-      <c r="E34" t="n">
-        <v>16.3294797687861</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="E34">
+        <v>16.329479768786101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
         <v>13</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2021</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1746</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>91</v>
       </c>
-      <c r="E35" t="n">
-        <v>5.21191294387171</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="E35">
+        <v>5.2119129438717096</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
         <v>13</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2022</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1322</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>89</v>
       </c>
-      <c r="E36" t="n">
-        <v>6.732223903177</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="E36">
+        <v>6.7322239031770001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
         <v>13</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>2023</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1416</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>301</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>21.2570621468927</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:5">
+      <c r="A38">
         <v>15</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>2015</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>666</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>130</v>
       </c>
-      <c r="E38" t="n">
-        <v>19.5195195195195</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="E38">
+        <v>19.519519519519498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
         <v>15</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>2016</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>927</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>107</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>11.5426105717368</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:5">
+      <c r="A40">
         <v>15</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2017</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1038</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>118</v>
       </c>
-      <c r="E40" t="n">
-        <v>11.3680154142582</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="E40">
+        <v>11.368015414258201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
         <v>15</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>2018</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>910</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>107</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>11.7582417582418</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:5">
+      <c r="A42">
         <v>15</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>2019</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>830</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>101</v>
       </c>
-      <c r="E42" t="n">
-        <v>12.1686746987952</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="E42">
+        <v>12.168674698795201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
         <v>15</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2020</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>719</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>142</v>
       </c>
-      <c r="E43" t="n">
-        <v>19.749652294854</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="E43">
+        <v>19.749652294853998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
         <v>15</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>2021</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>928</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>41</v>
       </c>
-      <c r="E44" t="n">
-        <v>4.41810344827586</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="E44">
+        <v>4.4181034482758603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
         <v>15</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>2022</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1055</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>43</v>
       </c>
-      <c r="E45" t="n">
-        <v>4.07582938388626</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="E45">
+        <v>4.0758293838862603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
         <v>15</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>2023</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>924</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>154</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>16.6666666666667</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:5">
+      <c r="A47">
         <v>17</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>2015</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1596</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>302</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>18.922305764411</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:5">
+      <c r="A48">
         <v>17</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>2016</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1604</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>180</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>11.2219451371571</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:5">
+      <c r="A49">
         <v>17</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2017</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1560</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>261</v>
       </c>
-      <c r="E49" t="n">
-        <v>16.7307692307692</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="E49">
+        <v>16.730769230769202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
         <v>17</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>2018</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1540</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>274</v>
       </c>
-      <c r="E50" t="n">
-        <v>17.7922077922078</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="E50">
+        <v>17.792207792207801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
         <v>17</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>2019</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1321</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>225</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>17.0325510976533</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:5">
+      <c r="A52">
         <v>17</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>2020</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>1709</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>207</v>
       </c>
-      <c r="E52" t="n">
-        <v>12.1123464014043</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+      <c r="E52">
+        <v>12.112346401404301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
         <v>17</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>2021</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>2127</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>124</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>5.82980724024448</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:5">
+      <c r="A54">
         <v>17</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>2022</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>1922</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>112</v>
       </c>
-      <c r="E54" t="n">
-        <v>5.82726326742976</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
+      <c r="E54">
+        <v>5.8272632674297604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
         <v>17</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>2023</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>1604</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>349</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>21.7581047381546</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:5">
+      <c r="A56">
         <v>18</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>2015</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>556</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>63</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>11.3309352517986</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:5">
+      <c r="A57">
         <v>18</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>2016</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>554</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>30</v>
       </c>
-      <c r="E57" t="n">
-        <v>5.41516245487365</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
+      <c r="E57">
+        <v>5.4151624548736503</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
         <v>18</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>2017</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>607</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>180</v>
       </c>
-      <c r="E58" t="n">
-        <v>29.6540362438221</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
+      <c r="E58">
+        <v>29.654036243822102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
         <v>18</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>2018</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>644</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>42</v>
       </c>
-      <c r="E59" t="n">
-        <v>6.52173913043478</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
+      <c r="E59">
+        <v>6.5217391304347796</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
         <v>18</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>2019</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>440</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>43</v>
       </c>
-      <c r="E60" t="n">
-        <v>9.77272727272727</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
+      <c r="E60">
+        <v>9.7727272727272698</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
         <v>18</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>2020</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>477</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>46</v>
       </c>
-      <c r="E61" t="n">
-        <v>9.64360587002096</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
+      <c r="E61">
+        <v>9.6436058700209593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
         <v>18</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>2021</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>650</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>12</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>1.84615384615385</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:5">
+      <c r="A63">
         <v>18</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>2022</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>462</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>10</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>2.16450216450216</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:5">
+      <c r="A64">
         <v>18</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>2023</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>445</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>82</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>18.4269662921348</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:5">
+      <c r="A65">
         <v>19</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>2015</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1183</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>237</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>20.0338123415046</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:5">
+      <c r="A66">
         <v>19</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>2016</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>1222</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>163</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>13.3387888707038</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:5">
+      <c r="A67">
         <v>19</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>2017</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>885</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>201</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>22.7118644067797</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:5">
+      <c r="A68">
         <v>19</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>2018</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>921</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>191</v>
       </c>
-      <c r="E68" t="n">
-        <v>20.7383279044517</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
+      <c r="E68">
+        <v>20.738327904451701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
         <v>19</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>2019</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>587</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>183</v>
       </c>
-      <c r="E69" t="n">
-        <v>31.175468483816</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
+      <c r="E69">
+        <v>31.175468483816001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
         <v>19</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>2020</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>827</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>145</v>
       </c>
-      <c r="E70" t="n">
-        <v>17.5332527206771</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
+      <c r="E70">
+        <v>17.533252720677101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
         <v>19</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>2021</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>1199</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>85</v>
       </c>
-      <c r="E71" t="n">
-        <v>7.08924103419516</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
+      <c r="E71">
+        <v>7.0892410341951599</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
         <v>19</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>2022</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>1056</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>76</v>
       </c>
-      <c r="E72" t="n">
-        <v>7.1969696969697</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
+      <c r="E72">
+        <v>7.1969696969696999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
         <v>19</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>2023</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>1003</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>338</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>33.6989032901296</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:5">
+      <c r="A74">
         <v>20</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>2015</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1241</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>48</v>
       </c>
-      <c r="E74" t="n">
-        <v>3.86784850926672</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
+      <c r="E74">
+        <v>3.8678485092667199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
         <v>20</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>2016</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>1047</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>25</v>
       </c>
-      <c r="E75" t="n">
-        <v>2.38777459407832</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+      <c r="E75">
+        <v>2.3877745940783202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
         <v>20</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>2017</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>1067</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>58</v>
       </c>
-      <c r="E76" t="n">
-        <v>5.43580131208997</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="E76">
+        <v>5.4358013120899704</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
         <v>20</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>2018</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>1330</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>46</v>
       </c>
-      <c r="E77" t="n">
-        <v>3.45864661654135</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="E77">
+        <v>3.4586466165413499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
         <v>20</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>2019</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>1405</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>68</v>
       </c>
-      <c r="E78" t="n">
-        <v>4.83985765124555</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="E78">
+        <v>4.8398576512455502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
         <v>20</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>2020</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>1509</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>59</v>
       </c>
-      <c r="E79" t="n">
-        <v>3.90987408880053</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+      <c r="E79">
+        <v>3.9098740888005299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
         <v>20</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>2021</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>1810</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>35</v>
       </c>
-      <c r="E80" t="n">
-        <v>1.93370165745856</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
+      <c r="E80">
+        <v>1.9337016574585599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
         <v>20</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>2022</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>1662</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>32</v>
       </c>
-      <c r="E81" t="n">
-        <v>1.92539109506619</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+      <c r="E81">
+        <v>1.9253910950661901</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
         <v>20</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>2023</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>1913</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>114</v>
       </c>
-      <c r="E82" t="n">
-        <v>5.95922634605332</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+      <c r="E82">
+        <v>5.9592263460533204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
         <v>23</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>2015</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>1826</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>39</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>2.13581599123768</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:5">
+      <c r="A84">
         <v>23</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>2016</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>2273</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>8</v>
       </c>
-      <c r="E84" t="n">
-        <v>0.351957765068192</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
+      <c r="E84">
+        <v>0.35195776506819199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
         <v>23</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>2017</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>2317</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>17</v>
       </c>
-      <c r="E85" t="n">
-        <v>0.73370738023306</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
+      <c r="E85">
+        <v>0.73370738023306004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
         <v>23</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>2018</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>2008</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>42</v>
       </c>
-      <c r="E86" t="n">
-        <v>2.09163346613546</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
+      <c r="E86">
+        <v>2.0916334661354599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
         <v>23</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>2019</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>1248</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>86</v>
       </c>
-      <c r="E87" t="n">
-        <v>6.89102564102564</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
+      <c r="E87">
+        <v>6.8910256410256396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
         <v>23</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>2020</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>941</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>64</v>
       </c>
-      <c r="E88" t="n">
-        <v>6.80127523910733</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
+      <c r="E88">
+        <v>6.8012752391073299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
         <v>23</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>2021</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>1815</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>99</v>
       </c>
-      <c r="E89" t="n">
-        <v>5.45454545454545</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
+      <c r="E89">
+        <v>5.4545454545454497</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
         <v>23</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>2022</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1392</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>71</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>5.10057471264368</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:5">
+      <c r="A91">
         <v>23</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>2023</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1345</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>179</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>13.3085501858736</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:5">
+      <c r="A92">
         <v>25</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>2015</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>1816</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>211</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>11.6189427312775</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:5">
+      <c r="A93">
         <v>25</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>2016</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>2591</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>49</v>
       </c>
-      <c r="E93" t="n">
-        <v>1.89116171362408</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+      <c r="E93">
+        <v>1.8911617136240799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
         <v>25</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>2017</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>2947</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>109</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>3.69867662029182</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:5">
+      <c r="A95">
         <v>25</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>2018</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>2354</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>119</v>
       </c>
-      <c r="E95" t="n">
-        <v>5.05522514868309</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
+      <c r="E95">
+        <v>5.0552251486830899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
         <v>25</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>2019</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>1776</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>104</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>5.85585585585586</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:5">
+      <c r="A97">
         <v>25</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>2020</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>1878</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>112</v>
       </c>
-      <c r="E97" t="n">
-        <v>5.96379126730564</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
+      <c r="E97">
+        <v>5.9637912673056404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
         <v>25</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>2021</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>2516</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>83</v>
       </c>
-      <c r="E98" t="n">
-        <v>3.29888712241653</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
+      <c r="E98">
+        <v>3.2988871224165299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
         <v>25</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>2022</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>2850</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>91</v>
       </c>
-      <c r="E99" t="n">
-        <v>3.19298245614035</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
+      <c r="E99">
+        <v>3.1929824561403501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
         <v>25</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>2023</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>2498</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>380</v>
       </c>
-      <c r="E100" t="n">
-        <v>15.2121697357886</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
+      <c r="E100">
+        <v>15.212169735788599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
         <v>27</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>2015</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>227</v>
       </c>
-      <c r="D101"/>
-      <c r="E101"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
         <v>27</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>2016</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>255</v>
       </c>
-      <c r="D102"/>
-      <c r="E102"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
         <v>27</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>2017</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>301</v>
       </c>
-      <c r="D103"/>
-      <c r="E103"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
         <v>27</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>2018</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>256</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>50</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>19.53125</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:5">
+      <c r="A105">
         <v>27</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>2019</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>346</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>59</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>17.0520231213873</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:5">
+      <c r="A106">
         <v>27</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>2020</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>234</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>84</v>
       </c>
-      <c r="E106" t="n">
-        <v>35.8974358974359</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
+      <c r="E106">
+        <v>35.897435897435898</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
         <v>27</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>2021</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>345</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>57</v>
       </c>
-      <c r="E107" t="n">
-        <v>16.5217391304348</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
+      <c r="E107">
+        <v>16.521739130434799</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
         <v>27</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>2022</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>376</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>73</v>
       </c>
-      <c r="E108" t="n">
-        <v>19.4148936170213</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
+      <c r="E108">
+        <v>19.414893617021299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
         <v>27</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>2023</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>398</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>446</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>112.060301507538</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:5">
+      <c r="A110">
         <v>41</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>2015</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>704</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>158</v>
       </c>
-      <c r="E110" t="n">
-        <v>22.4431818181818</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
+      <c r="E110">
+        <v>22.443181818181799</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
         <v>41</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>2016</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>949</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>84</v>
       </c>
-      <c r="E111" t="n">
-        <v>8.85142255005269</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
+      <c r="E111">
+        <v>8.8514225500526909</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
         <v>41</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>2017</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>1303</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>198</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>15.1957022256332</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:5">
+      <c r="A113">
         <v>41</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>2018</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>1164</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>165</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>14.1752577319588</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:5">
+      <c r="A114">
         <v>41</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>2019</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>1099</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>118</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>10.73703366697</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:5">
+      <c r="A115">
         <v>41</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>2020</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>952</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>127</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>13.3403361344538</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:5">
+      <c r="A116">
         <v>41</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>2021</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>979</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>113</v>
       </c>
-      <c r="E116" t="n">
-        <v>11.5423901940756</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
+      <c r="E116">
+        <v>11.542390194075599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
         <v>41</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>2022</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>1020</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>123</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>12.0588235294118</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:5">
+      <c r="A118">
         <v>41</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>2023</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>920</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>412</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>44.7826086956522</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:5">
+      <c r="A119">
         <v>44</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>2015</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>907</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>112</v>
       </c>
-      <c r="E119" t="n">
-        <v>12.348401323043</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
+      <c r="E119">
+        <v>12.348401323042999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
         <v>44</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>2016</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>617</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>23</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>3.72771474878444</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:5">
+      <c r="A121">
         <v>44</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>2017</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>886</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>34</v>
       </c>
-      <c r="E121" t="n">
-        <v>3.83747178329571</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
+      <c r="E121">
+        <v>3.8374717832957099</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
         <v>44</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>2018</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>669</v>
       </c>
-      <c r="D122"/>
-      <c r="E122"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
         <v>44</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>2019</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>531</v>
       </c>
-      <c r="D123"/>
-      <c r="E123"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
         <v>44</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>2020</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>475</v>
       </c>
-      <c r="D124"/>
-      <c r="E124"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
         <v>44</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>2021</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>632</v>
       </c>
-      <c r="D125"/>
-      <c r="E125"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
         <v>44</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>2022</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>635</v>
       </c>
-      <c r="D126"/>
-      <c r="E126"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
         <v>44</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>2023</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>591</v>
       </c>
-      <c r="D127"/>
-      <c r="E127"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
         <v>47</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>2015</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>1189</v>
       </c>
-      <c r="D128"/>
-      <c r="E128"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
         <v>47</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>2016</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>1529</v>
       </c>
-      <c r="D129"/>
-      <c r="E129"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
         <v>47</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>2017</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>1683</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>0</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>0</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:5">
+      <c r="A131">
         <v>47</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>2018</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>1630</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>0</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>0</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:5">
+      <c r="A132">
         <v>47</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>2019</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>1591</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>0</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>0</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:5">
+      <c r="A133">
         <v>47</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>2020</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1320</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>0</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>0</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:5">
+      <c r="A134">
         <v>47</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>2021</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1816</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>0</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>0</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="135" spans="1:5">
+      <c r="A135">
         <v>47</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>2022</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1581</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>0</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>0</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="136" spans="1:5">
+      <c r="A136">
         <v>47</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>2023</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1621</v>
       </c>
-      <c r="D136"/>
-      <c r="E136"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
         <v>50</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>2015</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>1093</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>139</v>
       </c>
-      <c r="E137" t="n">
-        <v>12.7172918572736</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
+      <c r="E137">
+        <v>12.717291857273599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
         <v>50</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>2016</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1246</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>86</v>
       </c>
-      <c r="E138" t="n">
-        <v>6.90208667736758</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
+      <c r="E138">
+        <v>6.9020866773675804</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
         <v>50</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>2017</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1266</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>126</v>
       </c>
-      <c r="E139" t="n">
-        <v>9.95260663507109</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
+      <c r="E139">
+        <v>9.9526066350710902</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
         <v>50</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>2018</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1348</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>118</v>
       </c>
-      <c r="E140" t="n">
-        <v>8.75370919881306</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
+      <c r="E140">
+        <v>8.7537091988130609</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
         <v>50</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>2019</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>765</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>115</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>15.0326797385621</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:5">
+      <c r="A142">
         <v>50</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>2020</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>1071</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>115</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>10.7376283846872</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="143" spans="1:5">
+      <c r="A143">
         <v>50</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>2021</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>1530</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>100</v>
       </c>
-      <c r="E143" t="n">
-        <v>6.5359477124183</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
+      <c r="E143">
+        <v>6.5359477124182996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
         <v>50</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>2022</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>1171</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>114</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>9.73526900085397</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="145" spans="1:5">
+      <c r="A145">
         <v>50</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>2023</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>1156</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>368</v>
       </c>
-      <c r="E145" t="n">
-        <v>31.8339100346021</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
+      <c r="E145">
+        <v>31.833910034602098</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
         <v>52</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>2015</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>1948</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>127</v>
       </c>
-      <c r="E146" t="n">
-        <v>6.51950718685832</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
+      <c r="E146">
+        <v>6.5195071868583199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
         <v>52</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>2016</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>2846</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>156</v>
       </c>
-      <c r="E147" t="n">
-        <v>5.48137737174982</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
+      <c r="E147">
+        <v>5.4813773717498204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
         <v>52</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>2017</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>2447</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>113</v>
       </c>
-      <c r="E148" t="n">
-        <v>4.61789946873723</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
+      <c r="E148">
+        <v>4.6178994687372299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
         <v>52</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>2018</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>2098</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>108</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>5.14775977121068</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="150" spans="1:5">
+      <c r="A150">
         <v>52</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>2019</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>1626</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>56</v>
       </c>
-      <c r="E150" t="n">
-        <v>3.4440344403444</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
+      <c r="E150">
+        <v>3.4440344403443999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
         <v>52</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>2020</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>1648</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>87</v>
       </c>
-      <c r="E151" t="n">
-        <v>5.27912621359223</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
+      <c r="E151">
+        <v>5.2791262135922299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
         <v>52</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>2021</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>2344</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>64</v>
       </c>
-      <c r="E152" t="n">
-        <v>2.73037542662116</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
+      <c r="E152">
+        <v>2.7303754266211602</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
         <v>52</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>2022</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>2403</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>64</v>
       </c>
-      <c r="E153" t="n">
-        <v>2.66333749479817</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
+      <c r="E153">
+        <v>2.6633374947981698</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
         <v>52</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>2023</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>2414</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>181</v>
       </c>
-      <c r="E154" t="n">
-        <v>7.49792874896437</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
+      <c r="E154">
+        <v>7.4979287489643696</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
         <v>54</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>2015</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>818</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>106</v>
       </c>
-      <c r="E155" t="n">
-        <v>12.958435207824</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
+      <c r="E155">
+        <v>12.958435207823999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
         <v>54</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>2016</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>840</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>68</v>
       </c>
-      <c r="E156" t="n">
-        <v>8.0952380952381</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
+      <c r="E156">
+        <v>8.0952380952381002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
         <v>54</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>2017</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>852</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>139</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>16.3145539906103</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="158" spans="1:5">
+      <c r="A158">
         <v>54</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>2018</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>901</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>147</v>
       </c>
-      <c r="E158" t="n">
-        <v>16.315205327414</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
+      <c r="E158">
+        <v>16.315205327413999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
         <v>54</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>2019</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>929</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>207</v>
       </c>
-      <c r="E159" t="n">
-        <v>22.2820236813778</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
+      <c r="E159">
+        <v>22.282023681377801</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
         <v>54</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>2020</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>747</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>194</v>
       </c>
-      <c r="E160" t="n">
-        <v>25.9705488621151</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
+      <c r="E160">
+        <v>25.970548862115098</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
         <v>54</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>2021</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>1003</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>182</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>18.1455633100698</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="162" spans="1:5">
+      <c r="A162">
         <v>54</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>2022</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>1096</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>191</v>
       </c>
-      <c r="E162" t="n">
-        <v>17.4270072992701</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
+      <c r="E162">
+        <v>17.427007299270102</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
         <v>54</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>2023</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>1008</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>398</v>
       </c>
-      <c r="E163" t="n">
-        <v>39.484126984127</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
+      <c r="E163">
+        <v>39.484126984127002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
         <v>63</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>2015</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>595</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>178</v>
       </c>
-      <c r="E164" t="n">
-        <v>29.9159663865546</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
+      <c r="E164">
+        <v>29.915966386554601</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
         <v>63</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>2016</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>636</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>116</v>
       </c>
-      <c r="E165" t="n">
-        <v>18.2389937106918</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
+      <c r="E165">
+        <v>18.238993710691801</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
         <v>63</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>2017</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>706</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>122</v>
       </c>
-      <c r="E166" t="n">
-        <v>17.2804532577904</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
+      <c r="E166">
+        <v>17.280453257790398</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
         <v>63</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>2018</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>985</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>117</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>11.8781725888325</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
+    <row r="168" spans="1:5">
+      <c r="A168">
         <v>63</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>2019</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>1081</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>124</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>11.4708603145236</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n">
+    <row r="169" spans="1:5">
+      <c r="A169">
         <v>63</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>2020</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>789</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>133</v>
       </c>
-      <c r="E169" t="n">
-        <v>16.8567807351077</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
+      <c r="E169">
+        <v>16.856780735107701</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
         <v>63</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>2021</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>942</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>110</v>
       </c>
-      <c r="E170" t="n">
-        <v>11.6772823779193</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
+      <c r="E170">
+        <v>11.677282377919299</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
         <v>63</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>2022</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>870</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>74</v>
       </c>
-      <c r="E171" t="n">
-        <v>8.50574712643678</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
+      <c r="E171">
+        <v>8.5057471264367805</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
         <v>63</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>2023</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>852</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>201</v>
       </c>
-      <c r="E172" t="n">
-        <v>23.5915492957746</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
+      <c r="E172">
+        <v>23.591549295774598</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
         <v>66</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>2015</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>1068</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>238</v>
       </c>
-      <c r="E173" t="n">
-        <v>22.2846441947566</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
+      <c r="E173">
+        <v>22.284644194756599</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
         <v>66</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>2016</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>1135</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>138</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>12.15859030837</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
+    <row r="175" spans="1:5">
+      <c r="A175">
         <v>66</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>2017</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>910</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>178</v>
       </c>
-      <c r="E175" t="n">
-        <v>19.5604395604396</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
+      <c r="E175">
+        <v>19.560439560439601</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
         <v>66</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>2018</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>901</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>153</v>
       </c>
-      <c r="E176" t="n">
-        <v>16.9811320754717</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
+      <c r="E176">
+        <v>16.981132075471699</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
         <v>66</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>2019</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>720</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>161</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>22.3611111111111</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="n">
+    <row r="178" spans="1:5">
+      <c r="A178">
         <v>66</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>2020</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>812</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>140</v>
       </c>
-      <c r="E178" t="n">
-        <v>17.2413793103448</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
+      <c r="E178">
+        <v>17.241379310344801</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
         <v>66</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>2021</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>990</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>88</v>
       </c>
-      <c r="E179" t="n">
-        <v>8.88888888888889</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
+      <c r="E179">
+        <v>8.8888888888888893</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
         <v>66</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>2022</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>856</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>95</v>
       </c>
-      <c r="E180" t="n">
-        <v>11.0981308411215</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
+      <c r="E180">
+        <v>11.098130841121501</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
         <v>66</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>2023</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>856</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>264</v>
       </c>
-      <c r="E181" t="n">
-        <v>30.8411214953271</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
+      <c r="E181">
+        <v>30.841121495327101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
         <v>68</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>2015</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>786</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>529</v>
       </c>
-      <c r="E182" t="n">
-        <v>67.3027989821883</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
+      <c r="E182">
+        <v>67.302798982188307</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
         <v>68</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>2016</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>891</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>363</v>
       </c>
-      <c r="E183" t="n">
-        <v>40.7407407407407</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
+      <c r="E183">
+        <v>40.740740740740698</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
         <v>68</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>2017</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>944</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>429</v>
       </c>
-      <c r="E184" t="n">
-        <v>45.4449152542373</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
+      <c r="E184">
+        <v>45.444915254237301</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
         <v>68</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>2018</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>1014</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>518</v>
       </c>
-      <c r="E185" t="n">
-        <v>51.0848126232742</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
+      <c r="E185">
+        <v>51.084812623274203</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
         <v>68</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>2019</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>996</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>405</v>
       </c>
-      <c r="E186" t="n">
-        <v>40.6626506024096</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
+      <c r="E186">
+        <v>40.662650602409599</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
         <v>68</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>2020</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>1365</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>417</v>
       </c>
-      <c r="E187" t="n">
-        <v>30.5494505494506</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
+      <c r="E187">
+        <v>30.549450549450601</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
         <v>68</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>2021</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>1972</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>342</v>
       </c>
-      <c r="E188" t="n">
-        <v>17.342799188641</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
+      <c r="E188">
+        <v>17.342799188640999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
         <v>68</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>2022</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>1657</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>369</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189">
         <v>22.2691611345806</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="n">
+    <row r="190" spans="1:5">
+      <c r="A190">
         <v>68</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>2023</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>1579</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>1073</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190">
         <v>67.9544015199493</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="n">
+    <row r="191" spans="1:5">
+      <c r="A191">
         <v>70</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>2015</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>718</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>24</v>
       </c>
-      <c r="E191" t="n">
-        <v>3.34261838440111</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
+      <c r="E191">
+        <v>3.3426183844011099</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
         <v>70</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>2016</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>738</v>
       </c>
-      <c r="D192"/>
-      <c r="E192"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
         <v>70</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>2017</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>644</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>0</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>0</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="n">
+    <row r="194" spans="1:5">
+      <c r="A194">
         <v>70</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>2018</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>718</v>
       </c>
-      <c r="D194"/>
-      <c r="E194"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
         <v>70</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>2019</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>549</v>
       </c>
-      <c r="D195"/>
-      <c r="E195"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
         <v>70</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>2020</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>412</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>0</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196">
         <v>0</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="n">
+    <row r="197" spans="1:5">
+      <c r="A197">
         <v>70</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>2021</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>501</v>
       </c>
-      <c r="D197"/>
-      <c r="E197"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
         <v>70</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>2022</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>431</v>
       </c>
-      <c r="D198"/>
-      <c r="E198"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
         <v>70</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>2023</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>376</v>
       </c>
-      <c r="D199"/>
-      <c r="E199"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
         <v>73</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>2015</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>982</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>222</v>
       </c>
-      <c r="E200" t="n">
-        <v>22.6069246435845</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
+      <c r="E200">
+        <v>22.606924643584499</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
         <v>73</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>2016</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>1293</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>141</v>
       </c>
-      <c r="E201" t="n">
-        <v>10.9048723897912</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
+      <c r="E201">
+        <v>10.904872389791199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
         <v>73</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>2017</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>1143</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>140</v>
       </c>
-      <c r="E202" t="n">
-        <v>12.2484689413823</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
+      <c r="E202">
+        <v>12.248468941382299</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
         <v>73</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>2018</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>1122</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>108</v>
       </c>
-      <c r="E203" t="n">
-        <v>9.62566844919786</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
+      <c r="E203">
+        <v>9.6256684491978604</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
         <v>73</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>2019</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>1129</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>105</v>
       </c>
-      <c r="E204" t="n">
-        <v>9.30026572187777</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
+      <c r="E204">
+        <v>9.3002657218777696</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
         <v>73</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>2020</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>1223</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>117</v>
       </c>
-      <c r="E205" t="n">
-        <v>9.56663941128373</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
+      <c r="E205">
+        <v>9.5666394112837292</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
         <v>73</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>2021</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>1832</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>47</v>
       </c>
-      <c r="E206" t="n">
-        <v>2.56550218340611</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
+      <c r="E206">
+        <v>2.5655021834061098</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
         <v>73</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>2022</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>1550</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>31</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>2</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="n">
+    <row r="208" spans="1:5">
+      <c r="A208">
         <v>73</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>2023</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>1509</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>90</v>
       </c>
-      <c r="E208" t="n">
-        <v>5.96421471172962</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
+      <c r="E208">
+        <v>5.9642147117296203</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
         <v>76</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>2015</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>5043</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>1673</v>
       </c>
-      <c r="E209" t="n">
-        <v>33.1746976006345</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
+      <c r="E209">
+        <v>33.174697600634502</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
         <v>76</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>2016</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>6573</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>868</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>13.2055378061768</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="n">
+    <row r="211" spans="1:5">
+      <c r="A211">
         <v>76</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>2017</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>6266</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>1610</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211">
         <v>25.6942227896585</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="n">
+    <row r="212" spans="1:5">
+      <c r="A212">
         <v>76</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>2018</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>6268</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>1907</v>
       </c>
-      <c r="E212" t="n">
-        <v>30.4243777919592</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
+      <c r="E212">
+        <v>30.424377791959198</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
         <v>76</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>2019</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>4829</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>1273</v>
       </c>
-      <c r="E213" t="n">
-        <v>26.36156554152</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
+      <c r="E213">
+        <v>26.361565541520001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
         <v>76</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>2020</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>5157</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>957</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214">
         <v>18.5573007562536</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="n">
+    <row r="215" spans="1:5">
+      <c r="A215">
         <v>76</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>2021</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>7103</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>1026</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215">
         <v>14.4446008728706</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="n">
+    <row r="216" spans="1:5">
+      <c r="A216">
         <v>76</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>2022</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>7162</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>834</v>
       </c>
-      <c r="E216" t="n">
-        <v>11.6447919575538</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
+      <c r="E216">
+        <v>11.644791957553799</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
         <v>76</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>2023</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>6829</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>2448</v>
       </c>
-      <c r="E217" t="n">
-        <v>35.8471225655294</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
+      <c r="E217">
+        <v>35.847122565529403</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
         <v>81</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>2015</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>123</v>
       </c>
-      <c r="D218"/>
-      <c r="E218"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
         <v>81</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>2016</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>139</v>
       </c>
-      <c r="D219"/>
-      <c r="E219"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
         <v>81</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>2017</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>194</v>
       </c>
-      <c r="D220"/>
-      <c r="E220"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
         <v>81</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>2018</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>180</v>
       </c>
-      <c r="D221"/>
-      <c r="E221"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
         <v>81</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>2019</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>115</v>
       </c>
-      <c r="D222"/>
-      <c r="E222"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
         <v>81</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>2020</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>202</v>
       </c>
-      <c r="D223"/>
-      <c r="E223"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
         <v>81</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>2021</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>415</v>
       </c>
-      <c r="D224"/>
-      <c r="E224"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
         <v>81</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>2022</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>381</v>
       </c>
-      <c r="D225"/>
-      <c r="E225"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
         <v>81</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>2023</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>361</v>
       </c>
-      <c r="D226"/>
-      <c r="E226"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
         <v>85</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>2015</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>415</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>90</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>21.6867469879518</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="n">
+    <row r="228" spans="1:5">
+      <c r="A228">
         <v>85</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>2016</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>499</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>59</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228">
         <v>11.8236472945892</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="n">
+    <row r="229" spans="1:5">
+      <c r="A229">
         <v>85</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>2017</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>470</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>76</v>
       </c>
-      <c r="E229" t="n">
-        <v>16.1702127659574</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
+      <c r="E229">
+        <v>16.170212765957402</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
         <v>85</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>2018</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>315</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>72</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>22.8571428571429</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="n">
+    <row r="231" spans="1:5">
+      <c r="A231">
         <v>85</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>2019</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>242</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>77</v>
       </c>
-      <c r="E231" t="n">
-        <v>31.8181818181818</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
+      <c r="E231">
+        <v>31.818181818181799</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
         <v>85</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>2020</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>312</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>104</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>33.3333333333333</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="n">
+    <row r="233" spans="1:5">
+      <c r="A233">
         <v>85</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>2021</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>530</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>56</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>10.5660377358491</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="n">
+    <row r="234" spans="1:5">
+      <c r="A234">
         <v>85</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>2022</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>497</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>42</v>
       </c>
-      <c r="E234" t="n">
-        <v>8.45070422535211</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="E234">
+        <v>8.4507042253521103</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
         <v>85</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>2023</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>479</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>121</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235">
         <v>25.2609603340292</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="n">
+    <row r="236" spans="1:5">
+      <c r="A236">
         <v>86</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>2015</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>302</v>
       </c>
-      <c r="D236"/>
-      <c r="E236"/>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
         <v>86</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>2016</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>345</v>
       </c>
-      <c r="D237"/>
-      <c r="E237"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
         <v>86</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>2017</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>374</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>0</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238">
         <v>0</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="n">
+    <row r="239" spans="1:5">
+      <c r="A239">
         <v>86</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>2018</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>337</v>
       </c>
-      <c r="D239"/>
-      <c r="E239"/>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
         <v>86</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>2019</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>518</v>
       </c>
-      <c r="D240"/>
-      <c r="E240"/>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
         <v>86</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>2020</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>435</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>0</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241">
         <v>0</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="n">
+    <row r="242" spans="1:5">
+      <c r="A242">
         <v>86</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>2021</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>508</v>
       </c>
-      <c r="D242"/>
-      <c r="E242"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
         <v>86</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>2022</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>480</v>
       </c>
-      <c r="D243"/>
-      <c r="E243"/>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
         <v>86</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>2023</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>454</v>
       </c>
-      <c r="D244"/>
-      <c r="E244"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
         <v>88</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>2015</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>16</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>23</v>
       </c>
-      <c r="E245" t="n">
+      <c r="E245">
         <v>143.75</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="n">
+    <row r="246" spans="1:5">
+      <c r="A246">
         <v>88</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>2016</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>32</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>6</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E246">
         <v>18.75</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="n">
+    <row r="247" spans="1:5">
+      <c r="A247">
         <v>88</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>2017</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>44</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>19</v>
       </c>
-      <c r="E247" t="n">
-        <v>43.1818181818182</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
+      <c r="E247">
+        <v>43.181818181818201</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
         <v>88</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>2018</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>23</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>15</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E248">
         <v>65.2173913043478</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="n">
+    <row r="249" spans="1:5">
+      <c r="A249">
         <v>88</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>2019</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>18</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>17</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E249">
         <v>94.4444444444444</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="n">
+    <row r="250" spans="1:5">
+      <c r="A250">
         <v>88</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>2020</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>18</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>46</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E250">
         <v>255.555555555556</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="n">
+    <row r="251" spans="1:5">
+      <c r="A251">
         <v>88</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>2021</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>88</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>20</v>
       </c>
-      <c r="E251" t="n">
-        <v>22.7272727272727</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
+      <c r="E251">
+        <v>22.727272727272702</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
         <v>88</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>2022</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>76</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>14</v>
       </c>
-      <c r="E252" t="n">
-        <v>18.4210526315789</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
+      <c r="E252">
+        <v>18.421052631578899</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
         <v>88</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>2023</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>78</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>17</v>
       </c>
-      <c r="E253" t="n">
-        <v>21.7948717948718</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
+      <c r="E253">
+        <v>21.794871794871799</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
         <v>91</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>2015</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>185</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>33</v>
       </c>
-      <c r="E254" t="n">
+      <c r="E254">
         <v>17.8378378378378</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="n">
+    <row r="255" spans="1:5">
+      <c r="A255">
         <v>91</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>2016</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>160</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>13</v>
       </c>
-      <c r="E255" t="n">
+      <c r="E255">
         <v>8.125</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="n">
+    <row r="256" spans="1:5">
+      <c r="A256">
         <v>91</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>2017</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>330</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>21</v>
       </c>
-      <c r="E256" t="n">
-        <v>6.36363636363636</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
+      <c r="E256">
+        <v>6.3636363636363598</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
         <v>91</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>2018</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>187</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>20</v>
       </c>
-      <c r="E257" t="n">
-        <v>10.6951871657754</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
+      <c r="E257">
+        <v>10.695187165775399</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
         <v>91</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>2019</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>129</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>11</v>
       </c>
-      <c r="E258" t="n">
-        <v>8.52713178294574</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
+      <c r="E258">
+        <v>8.5271317829457391</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
         <v>91</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>2020</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>98</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>53</v>
       </c>
-      <c r="E259" t="n">
-        <v>54.0816326530612</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
+      <c r="E259">
+        <v>54.081632653061199</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
         <v>91</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>2021</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>207</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>23</v>
       </c>
-      <c r="E260" t="n">
+      <c r="E260">
         <v>11.1111111111111</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="n">
+    <row r="261" spans="1:5">
+      <c r="A261">
         <v>91</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>2022</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>156</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>18</v>
       </c>
-      <c r="E261" t="n">
-        <v>11.5384615384615</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
+      <c r="E261">
+        <v>11.538461538461499</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
         <v>91</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>2023</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>185</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>65</v>
       </c>
-      <c r="E262" t="n">
-        <v>35.1351351351351</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
+      <c r="E262">
+        <v>35.135135135135101</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
         <v>94</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>2015</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>53</v>
       </c>
-      <c r="D263"/>
-      <c r="E263"/>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
         <v>94</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>2016</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>90</v>
       </c>
-      <c r="D264"/>
-      <c r="E264"/>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
         <v>94</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>2017</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>115</v>
       </c>
-      <c r="D265"/>
-      <c r="E265"/>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
         <v>94</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>2018</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>68</v>
       </c>
-      <c r="D266"/>
-      <c r="E266"/>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
         <v>94</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>2019</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>69</v>
       </c>
-      <c r="D267"/>
-      <c r="E267"/>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
         <v>94</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>2020</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>61</v>
       </c>
-      <c r="D268"/>
-      <c r="E268"/>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
         <v>94</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>2021</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>79</v>
       </c>
-      <c r="D269"/>
-      <c r="E269"/>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
         <v>94</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>2022</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>90</v>
       </c>
-      <c r="D270"/>
-      <c r="E270"/>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
         <v>94</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>2023</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>86</v>
       </c>
-      <c r="D271"/>
-      <c r="E271"/>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
         <v>95</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>2015</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>118</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>4</v>
       </c>
-      <c r="E272" t="n">
-        <v>3.38983050847458</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
+      <c r="E272">
+        <v>3.3898305084745801</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
         <v>95</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>2016</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>92</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>1</v>
       </c>
-      <c r="E273" t="n">
-        <v>1.08695652173913</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
+      <c r="E273">
+        <v>1.0869565217391299</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
         <v>95</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>2017</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>139</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>2</v>
       </c>
-      <c r="E274" t="n">
+      <c r="E274">
         <v>1.43884892086331</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="n">
+    <row r="275" spans="1:5">
+      <c r="A275">
         <v>95</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>2018</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>132</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>2</v>
       </c>
-      <c r="E275" t="n">
+      <c r="E275">
         <v>1.51515151515152</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="n">
+    <row r="276" spans="1:5">
+      <c r="A276">
         <v>95</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>2019</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>185</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>2</v>
       </c>
-      <c r="E276" t="n">
+      <c r="E276">
         <v>1.08108108108108</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="n">
+    <row r="277" spans="1:5">
+      <c r="A277">
         <v>95</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>2020</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>121</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>42</v>
       </c>
-      <c r="E277" t="n">
-        <v>34.7107438016529</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
+      <c r="E277">
+        <v>34.710743801652903</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278">
         <v>95</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>2021</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>126</v>
       </c>
-      <c r="D278"/>
-      <c r="E278"/>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279">
         <v>95</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>2022</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>138</v>
       </c>
-      <c r="D279"/>
-      <c r="E279"/>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280">
         <v>95</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>2023</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>185</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>2</v>
       </c>
-      <c r="E280" t="n">
+      <c r="E280">
         <v>1.08108108108108</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="n">
+    <row r="281" spans="1:5">
+      <c r="A281">
         <v>97</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>2015</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>10</v>
       </c>
-      <c r="D281"/>
-      <c r="E281"/>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282">
         <v>97</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>2016</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>33</v>
       </c>
-      <c r="D282"/>
-      <c r="E282"/>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283">
         <v>97</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>2017</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>9</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>0</v>
       </c>
-      <c r="E283" t="n">
+      <c r="E283">
         <v>0</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="n">
+    <row r="284" spans="1:5">
+      <c r="A284">
         <v>97</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>2018</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>42</v>
       </c>
-      <c r="D284"/>
-      <c r="E284"/>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285">
         <v>97</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>2019</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>48</v>
       </c>
-      <c r="D285"/>
-      <c r="E285"/>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286">
         <v>97</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>2020</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>39</v>
       </c>
-      <c r="D286"/>
-      <c r="E286"/>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287">
         <v>97</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>2021</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>64</v>
       </c>
-      <c r="D287"/>
-      <c r="E287"/>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288">
         <v>97</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>2022</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>67</v>
       </c>
-      <c r="D288"/>
-      <c r="E288"/>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289">
         <v>97</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>2023</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>69</v>
       </c>
-      <c r="D289"/>
-      <c r="E289"/>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290">
         <v>99</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>2015</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>86</v>
       </c>
-      <c r="D290"/>
-      <c r="E290"/>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291">
         <v>99</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>2016</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>109</v>
       </c>
-      <c r="D291"/>
-      <c r="E291"/>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292">
         <v>99</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>2017</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>107</v>
       </c>
-      <c r="D292"/>
-      <c r="E292"/>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293">
         <v>99</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>2018</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>54</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>0</v>
       </c>
-      <c r="E293" t="n">
+      <c r="E293">
         <v>0</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="n">
+    <row r="294" spans="1:5">
+      <c r="A294">
         <v>99</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>2019</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>68</v>
       </c>
-      <c r="D294"/>
-      <c r="E294"/>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295">
         <v>99</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>2020</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>76</v>
       </c>
-      <c r="D295"/>
-      <c r="E295"/>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296">
         <v>99</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>2021</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>99</v>
       </c>
-      <c r="D296"/>
-      <c r="E296"/>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297">
         <v>99</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>2022</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>158</v>
       </c>
-      <c r="D297"/>
-      <c r="E297"/>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298">
         <v>99</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>2023</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>144</v>
       </c>
-      <c r="D298"/>
-      <c r="E298"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>